--- a/ConvertedEqual/Mississippi_Converted.xlsx
+++ b/ConvertedEqual/Mississippi_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="272">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -795,6 +795,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W221"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2626,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0.03846153846153846</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2697,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0.03846153846153846</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2768,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0.03846153846153846</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2839,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2910,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2981,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3052,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3123,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3194,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3265,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3336,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3407,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3478,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3549,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3620,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3691,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3762,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3833,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3904,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3975,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4046,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4117,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4188,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4259,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4330,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4401,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4472,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4543,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4614,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4685,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4756,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4827,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4898,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4969,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5040,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5111,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5182,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5253,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5324,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5395,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5466,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5537,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5608,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5679,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5750,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5821,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5892,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5963,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6034,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6105,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6176,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6247,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6318,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6389,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6460,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6531,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6602,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6673,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>0.4102564102538462</v>
+        <v>0.3611111111083334</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6744,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>0.4102564102538462</v>
+        <v>0.3611111111083334</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6815,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>0.4102564102538462</v>
+        <v>0.3611111111083334</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6886,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>0.4102564102538462</v>
+        <v>0.3611111111083334</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6957,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7028,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7099,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7170,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7241,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7312,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="W90">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7383,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7454,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7525,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7596,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7667,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7738,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="W96">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7809,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7880,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7951,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="W99">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8022,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="W100">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8093,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>0.3461538461538461</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8164,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="W102">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8235,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8306,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="W104">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8377,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="W105">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8448,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8519,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="W107">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8590,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8661,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8732,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8803,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8874,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8945,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9016,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9087,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9158,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9229,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="W117">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9300,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9371,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="W119">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9442,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="W120">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9513,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="W121">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9584,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="W122">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9655,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="W123">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9726,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="W124">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9797,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="W125">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9868,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="W126">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9939,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10010,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="W128">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10081,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="W129">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10152,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="W130">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10223,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="W131">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10294,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="W132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10365,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="W133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10436,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="W134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10507,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="W135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10578,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="W136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10649,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="W137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10720,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="W138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10791,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="W139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10862,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="W140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10933,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="W141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11004,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11075,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="W143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11146,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11217,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="W145">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11288,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="W146">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11359,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="W147">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11430,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="W148">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11501,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="W149">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11572,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="W150">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11643,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="W151">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11714,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="W152">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11785,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="W153">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11856,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="W154">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11927,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="W155">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11998,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="W156">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12069,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="W157">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12140,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="W158">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12211,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="W159">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12282,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="W160">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12353,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="W161">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12424,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="W162">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12495,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="W163">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12566,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="W164">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12637,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="W165">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12708,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="W166">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12779,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="W167">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12850,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="W168">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12921,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="W169">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12992,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="W170">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13063,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="W171">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13134,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="W172">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13205,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="W173">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13276,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="W174">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13347,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="W175">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13418,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="W176">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13489,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="W177">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13560,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="W178">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13631,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="W179">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13702,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="W180">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13773,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="W181">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13844,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="W182">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13915,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="W183">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13986,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="W184">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14057,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="W185">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14128,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="W186">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14199,7 +14235,7 @@
         <v>0</v>
       </c>
       <c r="W187">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14270,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="W188">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14341,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="W189">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14412,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="W190">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14483,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="W191">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14554,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="W192">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14625,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="W193">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14696,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14767,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="W195">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14838,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14909,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="W197">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14980,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15051,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="W199">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15122,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="W200">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15193,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="W201">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15264,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="W202">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15335,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="W203">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15406,7 +15442,7 @@
         <v>0</v>
       </c>
       <c r="W204">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15477,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="W205">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15548,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="W206">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15619,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="W207">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15690,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="W208">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15761,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="W209">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15832,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="W210">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15903,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="W211">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15974,7 +16010,7 @@
         <v>0</v>
       </c>
       <c r="W212">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16045,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="W213">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16116,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="W214">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16187,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="W215">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16258,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="W216">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16329,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="W217">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16400,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="W218">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16471,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="W219">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16542,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="W220">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16613,7 +16649,859 @@
         <v>0</v>
       </c>
       <c r="W221">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23">
+      <c r="A222" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23">
+      <c r="A223" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23">
+      <c r="A224" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23">
+      <c r="A225" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23">
+      <c r="A226" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23">
+      <c r="A227" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23">
+      <c r="A228" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23">
+      <c r="A229" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23">
+      <c r="A230" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23">
+      <c r="A231" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23">
+      <c r="A232" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23">
+      <c r="A233" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
